--- a/exo0.xlsx
+++ b/exo0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="10">
   <si>
     <t>A</t>
   </si>
@@ -43,22 +43,7 @@
     <t>|</t>
   </si>
   <si>
-    <t>A,E</t>
-  </si>
-  <si>
-    <t>A,E,B</t>
-  </si>
-  <si>
-    <t>A,E,B,C</t>
-  </si>
-  <si>
-    <t>A,E,B,C,D</t>
-  </si>
-  <si>
-    <t>A,E,B,C,D,F</t>
-  </si>
-  <si>
-    <t>F-D-E-A</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -66,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,13 +61,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFff0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -249,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -281,14 +272,17 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -610,16 +604,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="11.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="22.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="16" width="11.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="22.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -685,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
@@ -693,7 +687,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>7</v>
@@ -708,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -719,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8">
         <v>14</v>
@@ -727,11 +721,11 @@
       <c r="E5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
+      <c r="F5" s="8">
+        <v>18</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -741,20 +735,20 @@
       <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="9">
-        <v>19</v>
+      <c r="C6" s="8">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>7</v>
+      <c r="F6" s="8">
+        <v>17</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
@@ -774,13 +768,13 @@
         <v>8</v>
       </c>
       <c r="F7" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+        <v>5</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -819,14 +813,12 @@
       <c r="F10" s="11"/>
       <c r="G10" s="13"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="11"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="14">
-        <v>17</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C11" s="15"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
